--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>10193400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6318200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>6318200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>3983900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>3983900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1153500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>1153500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2109300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>2109300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3656700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>3656700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>16365000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>16365000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>18046000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>18046000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>13264500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>13264500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10885700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>10885700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>14255700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>14255700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7830400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>7830400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3869900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>3869900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4888900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>12806100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>12806100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>16140000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7750900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>7750900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>20439300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>20439300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>17310000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>17310000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>4518300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>4518300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>20304000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>20304000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>13877000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>15137800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>15137800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>22587900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>22587900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>17026300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1638"/>
+  <dimension ref="A1:I1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57708,6 +57708,41 @@
         <v>17026300</v>
       </c>
     </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1639" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>26789500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1639"/>
+  <dimension ref="A1:I1640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57743,6 +57743,41 @@
         <v>26789500</v>
       </c>
     </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1640" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>26595400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1640"/>
+  <dimension ref="A1:I1641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57778,6 +57778,41 @@
         <v>26595400</v>
       </c>
     </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1641" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>20067100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1641"/>
+  <dimension ref="A1:I1642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57813,6 +57813,41 @@
         <v>20067100</v>
       </c>
     </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1642" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>16206900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1642"/>
+  <dimension ref="A1:I1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57848,6 +57848,41 @@
         <v>16206900</v>
       </c>
     </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1643" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>36369800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1643"/>
+  <dimension ref="A1:I1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57883,6 +57883,41 @@
         <v>36369800</v>
       </c>
     </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1644" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>7306900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1644"/>
+  <dimension ref="A1:I1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57918,6 +57918,41 @@
         <v>7306900</v>
       </c>
     </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1645" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>15200400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1645"/>
+  <dimension ref="A1:I1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57953,6 +57953,41 @@
         <v>15200400</v>
       </c>
     </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1646" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>25067500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1646"/>
+  <dimension ref="A1:I1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57988,6 +57988,41 @@
         <v>25067500</v>
       </c>
     </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1647" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>10712600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1647"/>
+  <dimension ref="A1:I1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58023,6 +58023,41 @@
         <v>10712600</v>
       </c>
     </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>31195600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1648"/>
+  <dimension ref="A1:I1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58058,6 +58058,41 @@
         <v>31195600</v>
       </c>
     </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>3436700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1649"/>
+  <dimension ref="A1:I1650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58093,6 +58093,41 @@
         <v>3436700</v>
       </c>
     </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>4293100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1650"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58128,6 +58128,41 @@
         <v>4293100</v>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>10304800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1651"/>
+  <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58163,6 +58163,41 @@
         <v>10304800</v>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>4180700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1652"/>
+  <dimension ref="A1:I1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58198,6 +58198,41 @@
         <v>4180700</v>
       </c>
     </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>62852400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1653"/>
+  <dimension ref="A1:I1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58233,6 +58233,41 @@
         <v>62852400</v>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>21260900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58268,6 +58268,41 @@
         <v>21260900</v>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>11585500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1655"/>
+  <dimension ref="A1:I1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58303,6 +58303,41 @@
         <v>11585500</v>
       </c>
     </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>27675500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1656"/>
+  <dimension ref="A1:I1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58338,6 +58338,41 @@
         <v>27675500</v>
       </c>
     </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>3150400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1657"/>
+  <dimension ref="A1:I1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58373,6 +58373,41 @@
         <v>3150400</v>
       </c>
     </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>11129100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1658"/>
+  <dimension ref="A1:I1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58408,6 +58408,41 @@
         <v>11129100</v>
       </c>
     </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>1588900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1659"/>
+  <dimension ref="A1:I1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58443,6 +58443,41 @@
         <v>1588900</v>
       </c>
     </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>1943800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1660"/>
+  <dimension ref="A1:I1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58478,6 +58478,41 @@
         <v>1943800</v>
       </c>
     </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>2276000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1661"/>
+  <dimension ref="A1:I1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58513,6 +58513,41 @@
         <v>2276000</v>
       </c>
     </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>3853100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1662"/>
+  <dimension ref="A1:I1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58548,6 +58548,41 @@
         <v>3853100</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>108262600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1663"/>
+  <dimension ref="A1:I1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58583,6 +58583,76 @@
         <v>108262600</v>
       </c>
     </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>483985800</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>186782200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1665"/>
+  <dimension ref="A1:I1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58653,6 +58653,41 @@
         <v>186782200</v>
       </c>
     </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>89098800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1666"/>
+  <dimension ref="A1:I1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58688,6 +58688,111 @@
         <v>89098800</v>
       </c>
     </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1667" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>76592400</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1668" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>124151100</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1669" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>41969400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1669"/>
+  <dimension ref="A1:I1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58793,6 +58793,41 @@
         <v>41969400</v>
       </c>
     </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1670" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>25510100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1670"/>
+  <dimension ref="A1:I1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58828,6 +58828,41 @@
         <v>25510100</v>
       </c>
     </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>108099100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5238.xlsx
+++ b/data/5238.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1671"/>
+  <dimension ref="A1:I1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58863,6 +58863,111 @@
         <v>108099100</v>
       </c>
     </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>53892400</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>23417400</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>AAX</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>38780800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
